--- a/data/trans_orig/P59A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P59A-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>24301</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16059</v>
+        <v>15634</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33516</v>
+        <v>34686</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07853636201230683</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0519007673355632</v>
+        <v>0.05052583297470898</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1083189156314584</v>
+        <v>0.1120998115891063</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -765,19 +765,19 @@
         <v>23503</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14411</v>
+        <v>15098</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35071</v>
+        <v>34668</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04657297786245311</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02855550235498361</v>
+        <v>0.02991815913473543</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06949556296658391</v>
+        <v>0.06869559192494672</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -786,19 +786,19 @@
         <v>47804</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35858</v>
+        <v>35561</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63838</v>
+        <v>63451</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05872187239341559</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04404783747812878</v>
+        <v>0.0436822969152684</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07841788302299947</v>
+        <v>0.07794207820757126</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>285120</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>275905</v>
+        <v>274735</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>293362</v>
+        <v>293787</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9214636379876932</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8916810843685414</v>
+        <v>0.8879001884108937</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9480992326644369</v>
+        <v>0.949474167025291</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>465</v>
@@ -836,19 +836,19 @@
         <v>481154</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>469586</v>
+        <v>469989</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>490246</v>
+        <v>489559</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9534270221375469</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9305044370334158</v>
+        <v>0.9313044080750532</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9714444976450164</v>
+        <v>0.9700818408652645</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>747</v>
@@ -857,19 +857,19 @@
         <v>766274</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>750240</v>
+        <v>750627</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>778220</v>
+        <v>778517</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9412781276065844</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9215821169770013</v>
+        <v>0.9220579217924293</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9559521625218712</v>
+        <v>0.9563177030847316</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>108452</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>89980</v>
+        <v>88269</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>129947</v>
+        <v>129426</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.144936346555204</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1202504105568254</v>
+        <v>0.1179633685659172</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1736616456038443</v>
+        <v>0.1729649522470447</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>75</v>
@@ -982,19 +982,19 @@
         <v>78913</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62559</v>
+        <v>63934</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>97914</v>
+        <v>96963</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.120774400566112</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09574582466743056</v>
+        <v>0.09785031682661278</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1498555658191807</v>
+        <v>0.1484000538750702</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>175</v>
@@ -1003,19 +1003,19 @@
         <v>187365</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>162157</v>
+        <v>163118</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>213412</v>
+        <v>214761</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1336732044224047</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1156886664476064</v>
+        <v>0.1163743326263633</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1522560777409603</v>
+        <v>0.153218171664166</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>639824</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>618329</v>
+        <v>618850</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>658296</v>
+        <v>660007</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.855063653444796</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8263383543961558</v>
+        <v>0.8270350477529554</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8797495894431749</v>
+        <v>0.8820366314340833</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>577</v>
@@ -1053,19 +1053,19 @@
         <v>574477</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>555476</v>
+        <v>556427</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>590831</v>
+        <v>589456</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.879225599433888</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8501444341808192</v>
+        <v>0.85159994612493</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9042541753325694</v>
+        <v>0.9021496831733875</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1211</v>
@@ -1074,19 +1074,19 @@
         <v>1214301</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1188254</v>
+        <v>1186905</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1239509</v>
+        <v>1238548</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8663267955775953</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8477439222590396</v>
+        <v>0.8467818283358344</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8843113335523934</v>
+        <v>0.8836256673736368</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>43526</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32830</v>
+        <v>32364</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55397</v>
+        <v>57270</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1887889636042654</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1423963707017805</v>
+        <v>0.1403730208875671</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2402758753367118</v>
+        <v>0.2484008624885755</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -1199,19 +1199,19 @@
         <v>38961</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28942</v>
+        <v>28813</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53358</v>
+        <v>51015</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1737667913853698</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1290794022266255</v>
+        <v>0.1285044345332164</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2379743700918723</v>
+        <v>0.2275229694526866</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>78</v>
@@ -1220,19 +1220,19 @@
         <v>82488</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>67734</v>
+        <v>65989</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>100601</v>
+        <v>100230</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1813825504446908</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1489403488243131</v>
+        <v>0.1451047880802327</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2212121143245618</v>
+        <v>0.2203963461065498</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>187028</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>175157</v>
+        <v>173284</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>197724</v>
+        <v>198190</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8112110363957346</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7597241246632883</v>
+        <v>0.7515991375114249</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8576036292982196</v>
+        <v>0.8596269791124335</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>180</v>
@@ -1270,19 +1270,19 @@
         <v>185256</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>170859</v>
+        <v>173202</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>195275</v>
+        <v>195404</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8262332086146302</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7620256299081278</v>
+        <v>0.7724770305473134</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8709205977733745</v>
+        <v>0.8714955654667836</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>361</v>
@@ -1291,19 +1291,19 @@
         <v>372283</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>354170</v>
+        <v>354541</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>387037</v>
+        <v>388782</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8186174495553091</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7787878856754381</v>
+        <v>0.7796036538934502</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8510596511756869</v>
+        <v>0.8548952119197675</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>176279</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>153836</v>
+        <v>153673</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>203060</v>
+        <v>205331</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.136836108197536</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1194146847497842</v>
+        <v>0.1192883250571037</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1576245902527514</v>
+        <v>0.1593876512377565</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>133</v>
@@ -1416,19 +1416,19 @@
         <v>141378</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>118695</v>
+        <v>120623</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>165144</v>
+        <v>168712</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1022797520026375</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08587015906277999</v>
+        <v>0.0872650148974607</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1194734612322002</v>
+        <v>0.122054940217543</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>300</v>
@@ -1437,19 +1437,19 @@
         <v>317657</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>285580</v>
+        <v>283262</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>351090</v>
+        <v>354979</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1189496795805522</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1069383259986586</v>
+        <v>0.1060700874764048</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.131469001982865</v>
+        <v>0.1329254811615362</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1111973</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1085192</v>
+        <v>1082921</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1134416</v>
+        <v>1134579</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.863163891802464</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8423754097472487</v>
+        <v>0.8406123487622434</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8805853152502159</v>
+        <v>0.8807116749428961</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1222</v>
@@ -1487,19 +1487,19 @@
         <v>1240885</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1217119</v>
+        <v>1213551</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1263568</v>
+        <v>1261640</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8977202479973625</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8805265387677996</v>
+        <v>0.877945059782457</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9141298409372198</v>
+        <v>0.9127349851025394</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2319</v>
@@ -1508,19 +1508,19 @@
         <v>2352858</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2319425</v>
+        <v>2315536</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2384935</v>
+        <v>2387253</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8810503204194479</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.868530998017135</v>
+        <v>0.8670745188384634</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8930616740013414</v>
+        <v>0.8939299125235949</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>35205</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25492</v>
+        <v>25071</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47247</v>
+        <v>48338</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1156095184358307</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08371202314820661</v>
+        <v>0.08233086290713439</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.155156205994882</v>
+        <v>0.1587391438259997</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -1872,19 +1872,19 @@
         <v>34218</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24049</v>
+        <v>23483</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48289</v>
+        <v>47110</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06923154585018422</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04865750374237231</v>
+        <v>0.04751265011218447</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09770061616391081</v>
+        <v>0.09531495845235781</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>66</v>
@@ -1893,19 +1893,19 @@
         <v>69423</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>55413</v>
+        <v>53485</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>87141</v>
+        <v>87155</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0869122984765117</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06937334544742807</v>
+        <v>0.06695980542595872</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1090948360384659</v>
+        <v>0.1091115262450576</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>269310</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>257268</v>
+        <v>256177</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>279023</v>
+        <v>279444</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8843904815641693</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8448437940051176</v>
+        <v>0.8412608561740003</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9162879768517934</v>
+        <v>0.9176691370928656</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>427</v>
@@ -1943,19 +1943,19 @@
         <v>460033</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>445962</v>
+        <v>447141</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>470202</v>
+        <v>470768</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9307684541498158</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9022993838360891</v>
+        <v>0.9046850415476422</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9513424962576275</v>
+        <v>0.9524873498878156</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>677</v>
@@ -1964,19 +1964,19 @@
         <v>729343</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>711625</v>
+        <v>711611</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>743353</v>
+        <v>745281</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9130877015234883</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8909051639615341</v>
+        <v>0.8908884737549426</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.930626654552572</v>
+        <v>0.9330401945740413</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>135108</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>114244</v>
+        <v>114447</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>158482</v>
+        <v>158348</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1568599810437037</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1326370164428458</v>
+        <v>0.1328734532760238</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1839977215091927</v>
+        <v>0.1838418626683343</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>116</v>
@@ -2089,19 +2089,19 @@
         <v>125619</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>104616</v>
+        <v>104800</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>149437</v>
+        <v>146700</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1725530887005217</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1437029579224385</v>
+        <v>0.1439561192754477</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2052706028375981</v>
+        <v>0.2015104723213803</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>238</v>
@@ -2110,19 +2110,19 @@
         <v>260727</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>232414</v>
+        <v>229377</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>291960</v>
+        <v>293286</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1640483084073656</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1462337357086542</v>
+        <v>0.1443228805855812</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.183699906407414</v>
+        <v>0.1845344491049217</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>726219</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>702845</v>
+        <v>702979</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>747083</v>
+        <v>746880</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8431400189562963</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8160022784908069</v>
+        <v>0.8161581373316656</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8673629835571541</v>
+        <v>0.8671265467239762</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>572</v>
@@ -2160,19 +2160,19 @@
         <v>602383</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>578565</v>
+        <v>581302</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>623386</v>
+        <v>623202</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8274469112994783</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.794729397162402</v>
+        <v>0.7984895276786199</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8562970420775615</v>
+        <v>0.8560438807245525</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1269</v>
@@ -2181,19 +2181,19 @@
         <v>1328602</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1297369</v>
+        <v>1296043</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1356915</v>
+        <v>1359952</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8359516915926344</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.816300093592586</v>
+        <v>0.8154655508950783</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8537662642913458</v>
+        <v>0.8556771194144188</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>41270</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29584</v>
+        <v>29851</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56284</v>
+        <v>56061</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1930052548110985</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1383534736687929</v>
+        <v>0.139606010672981</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2632252010515633</v>
+        <v>0.2621813083925181</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -2306,19 +2306,19 @@
         <v>42903</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31722</v>
+        <v>30893</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56209</v>
+        <v>56674</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2172829744557386</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1606579041935977</v>
+        <v>0.1564576167437042</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2846721615389839</v>
+        <v>0.2870265568058419</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>71</v>
@@ -2327,19 +2327,19 @@
         <v>84172</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>67037</v>
+        <v>66699</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>103275</v>
+        <v>104361</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2046608055672603</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1629969622484971</v>
+        <v>0.162175008994386</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2511080646928687</v>
+        <v>0.2537478379442185</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>172556</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>157542</v>
+        <v>157765</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>184242</v>
+        <v>183975</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8069947451889015</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.736774798948437</v>
+        <v>0.7378186916074819</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8616465263312071</v>
+        <v>0.8603939893270192</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>142</v>
@@ -2377,19 +2377,19 @@
         <v>154548</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>141242</v>
+        <v>140777</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>165729</v>
+        <v>166558</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7827170255442614</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7153278384610161</v>
+        <v>0.7129734431941578</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8393420958064024</v>
+        <v>0.8435423832562958</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>307</v>
@@ -2398,19 +2398,19 @@
         <v>327105</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>308002</v>
+        <v>306916</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>344240</v>
+        <v>344578</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7953391944327397</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7488919353071314</v>
+        <v>0.7462521620557816</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.837003037751503</v>
+        <v>0.837824991005614</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>211582</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>179192</v>
+        <v>183582</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>237797</v>
+        <v>238388</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1533572629026029</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1298806866018054</v>
+        <v>0.1330622766831641</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1723583256403832</v>
+        <v>0.1727863688644085</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>183</v>
@@ -2523,19 +2523,19 @@
         <v>202739</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>176492</v>
+        <v>175985</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>229642</v>
+        <v>232451</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1428040545159102</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.124316366439073</v>
+        <v>0.1239590629335971</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1617533920730654</v>
+        <v>0.1637317884125473</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>375</v>
@@ -2544,19 +2544,19 @@
         <v>414322</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>376802</v>
+        <v>375378</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>458709</v>
+        <v>453874</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1480051927532376</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1346024416814067</v>
+        <v>0.1340935647830728</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1638612981041543</v>
+        <v>0.1621343226370706</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>1168085</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1141870</v>
+        <v>1141279</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1200475</v>
+        <v>1196085</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8466427370973971</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8276416743596168</v>
+        <v>0.8272136311355914</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8701193133981944</v>
+        <v>0.8669377233168357</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1141</v>
@@ -2594,19 +2594,19 @@
         <v>1216965</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1190062</v>
+        <v>1187253</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1243212</v>
+        <v>1243719</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8571959454840898</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8382466079269345</v>
+        <v>0.8362682115874527</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8756836335609267</v>
+        <v>0.8760409370664028</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2253</v>
@@ -2615,19 +2615,19 @@
         <v>2385050</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2340663</v>
+        <v>2345498</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2422570</v>
+        <v>2423994</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8519948072467624</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8361387018958459</v>
+        <v>0.8378656773629294</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8653975583185933</v>
+        <v>0.8659064352169276</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>24533</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16310</v>
+        <v>15828</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36177</v>
+        <v>35101</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09230550889784733</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06136715186061983</v>
+        <v>0.05955259142982514</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1361162203408617</v>
+        <v>0.1320685862254335</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -2979,19 +2979,19 @@
         <v>23675</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15272</v>
+        <v>16040</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35929</v>
+        <v>34707</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05833579535534805</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03763120165616605</v>
+        <v>0.03952287383636163</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08852896955226275</v>
+        <v>0.08551900647026854</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -3000,19 +3000,19 @@
         <v>48208</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36286</v>
+        <v>35516</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63122</v>
+        <v>64189</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07177855643044911</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05402679856716536</v>
+        <v>0.05288132652417</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09398453926162016</v>
+        <v>0.09557221270289462</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>241248</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>229604</v>
+        <v>230680</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>249471</v>
+        <v>249953</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9076944911021527</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8638837796591383</v>
+        <v>0.8679314137745666</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9386328481393802</v>
+        <v>0.9404474085701748</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>328</v>
@@ -3050,19 +3050,19 @@
         <v>382170</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>369916</v>
+        <v>371138</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>390573</v>
+        <v>389805</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9416642046446519</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9114710304477371</v>
+        <v>0.9144809935297317</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9623687983438339</v>
+        <v>0.9604771261636389</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>573</v>
@@ -3071,19 +3071,19 @@
         <v>623418</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>608504</v>
+        <v>607437</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>635340</v>
+        <v>636110</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9282214435695508</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9060154607383799</v>
+        <v>0.9044277872971055</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9459732014328348</v>
+        <v>0.94711867347583</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>175924</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>152756</v>
+        <v>151579</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>201434</v>
+        <v>200544</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1876443433710692</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1629328426428495</v>
+        <v>0.1616766349653453</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2148533521893664</v>
+        <v>0.2139039701913089</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>153</v>
@@ -3196,19 +3196,19 @@
         <v>154507</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>131668</v>
+        <v>131599</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>176521</v>
+        <v>177671</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.168025484758009</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.143188257801791</v>
+        <v>0.1431137264562359</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1919654945607145</v>
+        <v>0.1932168204552216</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>313</v>
@@ -3217,19 +3217,19 @@
         <v>330431</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>297155</v>
+        <v>295931</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>363934</v>
+        <v>363169</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1779299915442044</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1600115418904866</v>
+        <v>0.1593525094942129</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1959703714660427</v>
+        <v>0.1955586388560544</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>761618</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>736108</v>
+        <v>736998</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>784786</v>
+        <v>785963</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8123556566289308</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7851466478106335</v>
+        <v>0.7860960298086911</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8370671573571505</v>
+        <v>0.8383233650346545</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>739</v>
@@ -3267,19 +3267,19 @@
         <v>765036</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>743022</v>
+        <v>741872</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>787875</v>
+        <v>787944</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.831974515241991</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8080345054392858</v>
+        <v>0.8067831795447782</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8568117421982091</v>
+        <v>0.856886273543764</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1460</v>
@@ -3288,19 +3288,19 @@
         <v>1526654</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1493151</v>
+        <v>1493916</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1559930</v>
+        <v>1561154</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8220700084557956</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8040296285339574</v>
+        <v>0.8044413611439457</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8399884581095134</v>
+        <v>0.8406474905057872</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>53749</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39939</v>
+        <v>41030</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68260</v>
+        <v>68257</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2163035711607509</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1607264542950239</v>
+        <v>0.1651169280925419</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2747007001765212</v>
+        <v>0.2746895765928031</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -3413,19 +3413,19 @@
         <v>46016</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34086</v>
+        <v>34396</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59447</v>
+        <v>59518</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1774655810892682</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1314567185258094</v>
+        <v>0.1326542685542493</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2292657520633834</v>
+        <v>0.2295408571145887</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>93</v>
@@ -3434,19 +3434,19 @@
         <v>99764</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>81283</v>
+        <v>82393</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>118752</v>
+        <v>120614</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1964713531971237</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1600743847486072</v>
+        <v>0.1622603941810179</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2338644796647674</v>
+        <v>0.2375306033270509</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>194739</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>180228</v>
+        <v>180231</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>208549</v>
+        <v>207458</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7836964288392491</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7252992998234793</v>
+        <v>0.7253104234071969</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8392735457049765</v>
+        <v>0.8348830719074581</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>207</v>
@@ -3484,19 +3484,19 @@
         <v>213277</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>199846</v>
+        <v>199775</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>225207</v>
+        <v>224897</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8225344189107318</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7707342479366165</v>
+        <v>0.7704591428854111</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8685432814741907</v>
+        <v>0.8673457314457507</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>388</v>
@@ -3505,19 +3505,19 @@
         <v>408017</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>389029</v>
+        <v>387167</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>426498</v>
+        <v>425388</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8035286468028764</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7661355203352329</v>
+        <v>0.7624693966729492</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.839925615251393</v>
+        <v>0.8377396058189821</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>254206</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>224254</v>
+        <v>227812</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>284374</v>
+        <v>286543</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1750960264676471</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1544652409345671</v>
+        <v>0.1569155038502708</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1958751746090704</v>
+        <v>0.1973692777524267</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>220</v>
@@ -3630,19 +3630,19 @@
         <v>224198</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>197099</v>
+        <v>197132</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>253174</v>
+        <v>253266</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1414780261857818</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1243776321634088</v>
+        <v>0.1243983233562165</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1597631490008474</v>
+        <v>0.1598214508080293</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>453</v>
@@ -3651,19 +3651,19 @@
         <v>478404</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>441237</v>
+        <v>439029</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>520056</v>
+        <v>522766</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1575515065762702</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1453112758972322</v>
+        <v>0.1445842917085629</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1712687335256534</v>
+        <v>0.1721612034393245</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>1197605</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1167437</v>
+        <v>1165268</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1227557</v>
+        <v>1223999</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8249039735323529</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8041248253909297</v>
+        <v>0.8026307222475731</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.845534759065433</v>
+        <v>0.8430844961497289</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1274</v>
@@ -3701,19 +3701,19 @@
         <v>1360483</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1331507</v>
+        <v>1331415</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1387582</v>
+        <v>1387549</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8585219738142182</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8402368509991525</v>
+        <v>0.8401785491919703</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8756223678365912</v>
+        <v>0.8756016766437831</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2421</v>
@@ -3722,19 +3722,19 @@
         <v>2558088</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2516436</v>
+        <v>2513726</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2595255</v>
+        <v>2597463</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8424484934237298</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8287312664743469</v>
+        <v>0.8278387965606752</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.854688724102768</v>
+        <v>0.8554157082914369</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>24687</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14600</v>
+        <v>14949</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37817</v>
+        <v>38363</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.095986465419549</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05676748101098363</v>
+        <v>0.05812522959519116</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1470386709282212</v>
+        <v>0.1491613953958553</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -4086,19 +4086,19 @@
         <v>23156</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15454</v>
+        <v>15899</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33286</v>
+        <v>34809</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05243548912971618</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03499467615422409</v>
+        <v>0.03600267460761226</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07537392001276787</v>
+        <v>0.07882252630460966</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -4107,19 +4107,19 @@
         <v>47843</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36034</v>
+        <v>35779</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63724</v>
+        <v>63590</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06846405581201458</v>
+        <v>0.06846405581201455</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05156525978948461</v>
+        <v>0.05120087937720121</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09119076723718937</v>
+        <v>0.09099860484820678</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>232502</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>219372</v>
+        <v>218826</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>242589</v>
+        <v>242240</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.904013534580451</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8529613290717789</v>
+        <v>0.8508386046041448</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9432325189890165</v>
+        <v>0.9418747704048088</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>750</v>
@@ -4157,19 +4157,19 @@
         <v>418459</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>408329</v>
+        <v>406806</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>426161</v>
+        <v>425716</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9475645108702838</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9246260799872321</v>
+        <v>0.9211774736953908</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9650053238457759</v>
+        <v>0.9639973253923879</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1023</v>
@@ -4178,19 +4178,19 @@
         <v>650960</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>635079</v>
+        <v>635213</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>662769</v>
+        <v>663024</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9315359441879855</v>
+        <v>0.9315359441879852</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9088092327628103</v>
+        <v>0.909001395151793</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9484347402105153</v>
+        <v>0.9487991206227988</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>200066</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>170128</v>
+        <v>167619</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>235086</v>
+        <v>233879</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1707148291089622</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1451690098033519</v>
+        <v>0.1430277449911692</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2005971137799033</v>
+        <v>0.1995674589528792</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>177</v>
@@ -4303,19 +4303,19 @@
         <v>160788</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>137943</v>
+        <v>140516</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>183055</v>
+        <v>186700</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1513917898332262</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1298818566767612</v>
+        <v>0.1323048174588127</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1723579419755155</v>
+        <v>0.1757895813745959</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>321</v>
@@ -4324,19 +4324,19 @@
         <v>360854</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>323607</v>
+        <v>323722</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>402006</v>
+        <v>406776</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1615284555629215</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1448553881942944</v>
+        <v>0.1449072424531358</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1799491606097861</v>
+        <v>0.182084447077951</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>971865</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>936845</v>
+        <v>938052</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1001803</v>
+        <v>1004312</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8292851708910377</v>
+        <v>0.8292851708910379</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7994028862200966</v>
+        <v>0.8004325410471204</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8548309901966481</v>
+        <v>0.8569722550088306</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1083</v>
@@ -4374,19 +4374,19 @@
         <v>901277</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>879010</v>
+        <v>875365</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>924122</v>
+        <v>921549</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8486082101667737</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8276420580244844</v>
+        <v>0.8242104186254041</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8701181433232386</v>
+        <v>0.8676951825411869</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1817</v>
@@ -4395,19 +4395,19 @@
         <v>1873143</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1831991</v>
+        <v>1827221</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1910390</v>
+        <v>1910275</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8384715444370783</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8200508393902137</v>
+        <v>0.8179155529220488</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8551446118057057</v>
+        <v>0.8550927575468641</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>60445</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44519</v>
+        <v>44435</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>78719</v>
+        <v>78087</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1923831414563943</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1416930285369219</v>
+        <v>0.1414275852304459</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2505444772230376</v>
+        <v>0.2485334507371686</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>88</v>
@@ -4520,19 +4520,19 @@
         <v>73743</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60054</v>
+        <v>60007</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88931</v>
+        <v>88542</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2029231933602925</v>
+        <v>0.2029231933602924</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1652550083368668</v>
+        <v>0.1651243448256199</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.244717596291782</v>
+        <v>0.2436462074556798</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>139</v>
@@ -4541,19 +4541,19 @@
         <v>134188</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>111970</v>
+        <v>114537</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>158026</v>
+        <v>158068</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1980359129913741</v>
+        <v>0.198035912991374</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1652469400617353</v>
+        <v>0.1690354042173237</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.233215895929738</v>
+        <v>0.2332788995456294</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>253746</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>235472</v>
+        <v>236104</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>269672</v>
+        <v>269756</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8076168585436058</v>
+        <v>0.8076168585436057</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7494555227769624</v>
+        <v>0.7514665492628315</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8583069714630783</v>
+        <v>0.8585724147695541</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>359</v>
@@ -4591,19 +4591,19 @@
         <v>289660</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>274472</v>
+        <v>274861</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>303349</v>
+        <v>303396</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7970768066397077</v>
+        <v>0.7970768066397075</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.755282403708218</v>
+        <v>0.7563537925443203</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8347449916631333</v>
+        <v>0.8348756551743802</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>565</v>
@@ -4612,19 +4612,19 @@
         <v>543406</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>519568</v>
+        <v>519526</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>565624</v>
+        <v>563057</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8019640870086258</v>
+        <v>0.801964087008626</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7667841040702622</v>
+        <v>0.766721100454371</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8347530599382649</v>
+        <v>0.8309645957826763</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>285198</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>249962</v>
+        <v>251105</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>327767</v>
+        <v>330286</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.163595448076429</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1433836217758974</v>
+        <v>0.1440394115545076</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1880141013572102</v>
+        <v>0.189458792240515</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>293</v>
@@ -4737,19 +4737,19 @@
         <v>257687</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>229397</v>
+        <v>230154</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>287760</v>
+        <v>289268</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.138015886725157</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1228639144513019</v>
+        <v>0.1232693435427596</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1541231071080858</v>
+        <v>0.1549307200925062</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>509</v>
@@ -4758,19 +4758,19 @@
         <v>542885</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>496682</v>
+        <v>492885</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>590769</v>
+        <v>590947</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1503672086270936</v>
+        <v>0.1503672086270935</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1375699076676762</v>
+        <v>0.136518437640076</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1636299407290932</v>
+        <v>0.1636792885984486</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>1458113</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1415544</v>
+        <v>1413025</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1493349</v>
+        <v>1492206</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8364045519235708</v>
+        <v>0.8364045519235709</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8119858986427897</v>
+        <v>0.8105412077594848</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8566163782241025</v>
+        <v>0.8559605884454924</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2192</v>
@@ -4808,19 +4808,19 @@
         <v>1609395</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1579322</v>
+        <v>1577814</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1637685</v>
+        <v>1636928</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.861984113274843</v>
+        <v>0.8619841132748428</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8458768928919143</v>
+        <v>0.8450692799074937</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.877136085548698</v>
+        <v>0.8767306564572405</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3405</v>
@@ -4829,19 +4829,19 @@
         <v>3067509</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3019625</v>
+        <v>3019447</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3113712</v>
+        <v>3117509</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8496327913729063</v>
+        <v>0.8496327913729064</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8363700592709069</v>
+        <v>0.8363207114015515</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8624300923323237</v>
+        <v>0.863481562359924</v>
       </c>
     </row>
     <row r="15">
